--- a/DIC/Lab2/Task5/N=9/task5_N9.xlsx
+++ b/DIC/Lab2/Task5/N=9/task5_N9.xlsx
@@ -587,88 +587,88 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.122e-12</v>
+        <v>4.769e-12</v>
       </c>
       <c r="B2" t="n">
-        <v>3.724e-12</v>
+        <v>3.963e-12</v>
       </c>
       <c r="C2" t="n">
-        <v>3.423e-12</v>
+        <v>4.366e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>4.895e-12</v>
+        <v>4.848e-12</v>
       </c>
       <c r="E2" t="n">
-        <v>5.035e-12</v>
+        <v>4.487e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>4.965e-12</v>
+        <v>4.668e-12</v>
       </c>
       <c r="G2" t="n">
-        <v>4.335e-12</v>
+        <v>4.269e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>4.144e-12</v>
+        <v>4.11e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>4.24e-12</v>
+        <v>4.189e-12</v>
       </c>
       <c r="J2" t="n">
-        <v>3.864e-12</v>
+        <v>3.841e-12</v>
       </c>
       <c r="K2" t="n">
-        <v>3.549e-12</v>
+        <v>3.624e-12</v>
       </c>
       <c r="L2" t="n">
-        <v>3.706e-12</v>
+        <v>3.733e-12</v>
       </c>
       <c r="M2" t="n">
-        <v>3.834e-12</v>
+        <v>3.774e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>3.623e-12</v>
+        <v>3.581e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>3.728e-12</v>
+        <v>3.677e-12</v>
       </c>
       <c r="P2" t="n">
-        <v>3.825e-12</v>
+        <v>3.785e-12</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.633e-12</v>
+        <v>3.6e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>3.729e-12</v>
+        <v>3.693e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>3.792e-12</v>
+        <v>3.73e-12</v>
       </c>
       <c r="T2" t="n">
-        <v>3.578e-12</v>
+        <v>3.548e-12</v>
       </c>
       <c r="U2" t="n">
-        <v>3.685e-12</v>
+        <v>3.639e-12</v>
       </c>
       <c r="V2" t="n">
-        <v>3.771e-12</v>
+        <v>3.727e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>3.569e-12</v>
+        <v>3.543e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>3.67e-12</v>
+        <v>3.635e-12</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.853e-12</v>
+        <v>3.805e-12</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.601e-12</v>
+        <v>3.584e-12</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.727e-12</v>
+        <v>3.695e-12</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.487e-11</v>
+        <v>3.529e-11</v>
       </c>
       <c r="AC2" t="n">
         <v>25</v>
